--- a/netkeiba/keiba/data_style.xlsx
+++ b/netkeiba/keiba/data_style.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuto\Documents\GitHub\test_slot\netkeiba\keiba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7FF4C9C0-AFED-4D22-B586-E6E8918E93F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A9430F-BF0B-4768-B886-425C3F4B9F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11370" yWindow="1890" windowWidth="13350" windowHeight="11055"/>
+    <workbookView xWindow="11640" yWindow="735" windowWidth="13350" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>枠</t>
   </si>
@@ -99,11 +99,23 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>datasets</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>[URL].csv</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -690,11 +702,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,17 +1066,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1150,6 +1166,68 @@
       </c>
       <c r="AE1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <v>202002</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="G8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>202003</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="J10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
